--- a/marketdo4a-spb-riverstart.xlsx
+++ b/marketdo4a-spb-riverstart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Кампания</t>
   </si>
@@ -44,72 +44,6 @@
   </si>
   <si>
     <t>CV</t>
-  </si>
-  <si>
-    <t>Гейнер - Общая - Поиск - СПБ</t>
-  </si>
-  <si>
-    <t>479</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>7,10</t>
-  </si>
-  <si>
-    <t>302,91</t>
-  </si>
-  <si>
-    <t>Гейнер - Горячая - Поиск - СПБ</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>12,37</t>
-  </si>
-  <si>
-    <t>361,90</t>
-  </si>
-  <si>
-    <t>Карнитин - Горячие - Поиск - СПБ</t>
-  </si>
-  <si>
-    <t>459</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>10,24</t>
-  </si>
-  <si>
-    <t>819,64</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Бренд - РСЯ - Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0,47</t>
-  </si>
-  <si>
-    <t>14,98</t>
-  </si>
-  <si>
-    <t>Total rows: 4</t>
   </si>
 </sst>
 </file>
@@ -445,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,148 +419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>E2/C2</f>
-        <v/>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>F2/C2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>E3/C3</f>
-        <v/>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>F3/C3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f>E4/C4</f>
-        <v/>
-      </c>
-      <c r="I4">
-        <f>E4/F4</f>
-        <v/>
-      </c>
-      <c r="J4">
-        <f>F4/C4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f>E5/C5</f>
-        <v/>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>F5/C5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-    </row>
+    <row r="2" spans="1:10"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
